--- a/Documentation/Data.xlsx
+++ b/Documentation/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -120,6 +120,147 @@
   </si>
   <si>
     <t>It should be online</t>
+  </si>
+  <si>
+    <t>Dominic Panaligan</t>
+  </si>
+  <si>
+    <t>UPD</t>
+  </si>
+  <si>
+    <t>Yes mostly, pero yung iba di na tumatanggap, depende sa class.</t>
+  </si>
+  <si>
+    <t>Again, depende sa class, madaming tumatanggap parin sa manual</t>
+  </si>
+  <si>
+    <t> Again x2, depende sa class, pero most common is kausapin mo yung prof bago magsimula class niya sa first day of classes</t>
+  </si>
+  <si>
+    <t>Oo</t>
+  </si>
+  <si>
+    <t>Hinde</t>
+  </si>
+  <si>
+    <t>Jay Tagle</t>
+  </si>
+  <si>
+    <t>meron</t>
+  </si>
+  <si>
+    <t>Online tapos manual</t>
+  </si>
+  <si>
+    <t> i-ra-raffle yung slots sa amin tas pag di kami kumpleto sa nakuha namin online saka kami pipila</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>wala parin akong subjects hanggang ngayon so no di ako satisfied</t>
+  </si>
+  <si>
+    <t>Faith Ardiente</t>
+  </si>
+  <si>
+    <t>Meron kaming online pre-enlistment.</t>
+  </si>
+  <si>
+    <t>Magdedesire kami ng mga classes na kailangan/gusto namin tapos may schedule ng batch run where randomly mag-ggrant yung mga classes. Hindi sya first come-first serve. 2 batches yon.</t>
+  </si>
+  <si>
+    <t>Satisfied ako sa way ng pagwork non pero di ako satisfied sa mga inooffer mismo</t>
+  </si>
+  <si>
+    <t>Lloren Tuaño</t>
+  </si>
+  <si>
+    <t>Meron</t>
+  </si>
+  <si>
+    <t>Online pag sa preenlisment palang pero kung di ka nakuha ng slots dun mag manual enlistment ka. </t>
+  </si>
+  <si>
+    <t>Yung prerog dapat mag pa preadvise ka muna sa adviser mo ng mga gusto mo itake na subjs tas pipila ka ng maaga para sa slots ng gusto mo itake na subjs tapos umasa ka nalang na may mag cancel or may magbukas na bagong class para maaccomodate ka. Yung iba nag cacampout nalang sa upd para una sa line ako kanina 4am na ko nakarating ng upd pero pang 22 na ko sa line for europen lang haaha. Tapos kung nakuha mo na slots magbayad ka ng student fund tas validation tas assessment ng tuition tas paprint form 5 tas post advise na tapos bayad ka na ng tuition</t>
+  </si>
+  <si>
+    <t>HINDI</t>
+  </si>
+  <si>
+    <t>EJ Tabino</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Online then manual pag wala kang nakuhang units</t>
+  </si>
+  <si>
+    <t>Depende kasi siya sa subject eh. Basta magbabaka sakali ka muna sa online tapos kapag wala kang nakuha kailangan mo pumila.</t>
+  </si>
+  <si>
+    <t>Hell no</t>
+  </si>
+  <si>
+    <t>Ara Tamayo</t>
+  </si>
+  <si>
+    <t>Online yung prereg namin</t>
+  </si>
+  <si>
+    <t>maglolog in ka sa crs.upd.edu.ph para magenlist ng subjects tapos sa deadline isasara yung page para sa enlistment tapos ipapakita yung results sayo the next day tapos lalabas kung may nakuha kang subjects. </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Actually hindi ako satisfied kasi andaming nagkukulang sa subjects and nahihirapan kumuha ng subjects kapag manual na yung reg</t>
+  </si>
+  <si>
+    <t>Faye Ursulom</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>May number or slots per class tapos di mo makukuha lahat ng inenlist mo kasi random yung pagbigay sa mga batch runs</t>
+  </si>
+  <si>
+    <t>Di ako satisfied sa process hehe</t>
+  </si>
+  <si>
+    <t>Matthew Del Rosario</t>
+  </si>
+  <si>
+    <t>Associate in arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online then manual </t>
+  </si>
+  <si>
+    <t>May fixed date para magreg</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Norence Ilicito</t>
+  </si>
+  <si>
+    <t>ADMU</t>
+  </si>
+  <si>
+    <t>BS-MIS</t>
+  </si>
+  <si>
+    <t>Magrereserve ka muna online tas manual na pagicconfirm</t>
+  </si>
+  <si>
+    <t>Satisfied naman.</t>
+  </si>
+  <si>
+    <t>There should be a better system on figuring out how many classes/slots to open so everyone can be accomodated, pero di naman sobrang lala ng ganitong cases sa amin</t>
   </si>
 </sst>
 </file>
@@ -155,10 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -253,6 +397,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +631,7 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,6 +777,243 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Data.xlsx
+++ b/Documentation/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelicalaurene\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Steps:</t>
   </si>
   <si>
-    <t>Have you experienced pre-registering</t>
-  </si>
-  <si>
     <t>Are you satisfied?</t>
   </si>
   <si>
-    <t>Comments:</t>
-  </si>
-  <si>
     <t>Enrico Gloria</t>
   </si>
   <si>
@@ -261,13 +255,136 @@
   </si>
   <si>
     <t>There should be a better system on figuring out how many classes/slots to open so everyone can be accomodated, pero di naman sobrang lala ng ganitong cases sa amin</t>
+  </si>
+  <si>
+    <t>Eva Ramoso Samillano</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>BSCS-SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Merong pinapafill up na form 2) Check yung Masters List sa FLAVIO kung available yung subject na gusto mo 3) Kunin mo schedule ng adviser na magssign sa form mo 4) Magpa-sign ng form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, kasi pag nagpapa-preregister, hassle dahil kumpulan sa pagpapapirma </t>
+  </si>
+  <si>
+    <t>Di maayos yung pagkaka-schedule sa pag pre-register</t>
+  </si>
+  <si>
+    <t>Samantha Galeon Mallari</t>
+  </si>
+  <si>
+    <t>RATE YOUR SATISFACTION (1 - 5) 1 being the lowest and 5 being the highest</t>
+  </si>
+  <si>
+    <t>1) Kuha ka ng form sa registrar 2) Check yung course code sa Masters List 3) Fill up mo yung form 4) Wait in line sa adviser 5) Bigay sa adviser yung form 6) Pirmahan ng adviser yung form 7) Ibabalik sayo yung form with signature</t>
+  </si>
+  <si>
+    <t>Di masyado</t>
+  </si>
+  <si>
+    <t>Comments/Recommendations/Suggestions/Violent Reactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pag nag ppregister kasi, yung mga tao napipilitan na madaliin yung pagpili ng subject (sa elective) kasi nga agawan sa slots. Mas maganda kung lahat may equal chances sa pagkuha ng subject by randomizing pero sa elective. </t>
+  </si>
+  <si>
+    <t>Paulo Miguel Sinsin Capuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Kuha form sa registrar 2) Maghanap ng designated prof para sa prereg 3) Magpre-register </t>
+  </si>
+  <si>
+    <t>Very unsatisfied</t>
+  </si>
+  <si>
+    <t>nakakapagod maghintay</t>
+  </si>
+  <si>
+    <t>Faith Ballesteros</t>
+  </si>
+  <si>
+    <t>First. Get a copy of the pre registration paper from the registrar. Second, look for the designated professor.</t>
+  </si>
+  <si>
+    <t>The experience was exhausting and tiring. If there is only an automated pre registration system then students won't have to go through that.</t>
+  </si>
+  <si>
+    <t>Rolando Aurelio Talag</t>
+  </si>
+  <si>
+    <t>Step 1- Present your ID then get a copy reg. paper from the registrar. Step 2- fill up the reg. form and bring to the encoder.</t>
+  </si>
+  <si>
+    <t>Very unstisfied</t>
+  </si>
+  <si>
+    <t>Please fix proper scheduling of encoder.</t>
+  </si>
+  <si>
+    <t>Genesis Diocampo</t>
+  </si>
+  <si>
+    <t>Unsatisfied</t>
+  </si>
+  <si>
+    <t>Sayang oras dahil madami pang pinupuntahan</t>
+  </si>
+  <si>
+    <t>Denzel F. Oribiana</t>
+  </si>
+  <si>
+    <t>BSCS-ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time is wasted because of the manual system,last time I registered a subject, it took about 1 and a half hour. </t>
+  </si>
+  <si>
+    <t>Jesus P. Brugada</t>
+  </si>
+  <si>
+    <t>Ang tagal magsimula at matapos, then ang haba pa ng pilam sobrang unorganized tuwing pre-reg</t>
+  </si>
+  <si>
+    <t>Fons Tison</t>
+  </si>
+  <si>
+    <t>Yeah</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>(Same steps as above)</t>
+  </si>
+  <si>
+    <t>Nagrereklamo yung ibang mga prof na nakakakita sa haba ng pila ng pre-reg. Dapat sisihin nila yung sistema, hindi ung mga estudyanteng gusto makakuha ng subject na gusto nila.</t>
+  </si>
+  <si>
+    <t>Jefferson Gonzales</t>
+  </si>
+  <si>
+    <t>Hassle yung prereg nila kasi pupunta pa sa 4th floor para magprepreg, aapproach pa natin personally yung mga designated prof na magaapprove. Massuggest ko na tayo na mismong students mag add ng subjects ng online.</t>
+  </si>
+  <si>
+    <t>Year Level</t>
+  </si>
+  <si>
+    <t>3rd Yr College</t>
+  </si>
+  <si>
+    <t>Have you experienced pre-registering?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +392,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,11 +435,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -319,6 +524,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+  <autoFilter ref="A1:K24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="School" dataDxfId="9"/>
+    <tableColumn id="3" name="Course" dataDxfId="8"/>
+    <tableColumn id="12" name="Year Level" dataDxfId="7"/>
+    <tableColumn id="4" name="Do you have a pre-registration system in your school?" dataDxfId="6"/>
+    <tableColumn id="5" name="Online or Manual?" dataDxfId="5"/>
+    <tableColumn id="6" name="Steps:" dataDxfId="4"/>
+    <tableColumn id="7" name="Have you experienced pre-registering?" dataDxfId="3"/>
+    <tableColumn id="8" name="Are you satisfied?" dataDxfId="2"/>
+    <tableColumn id="9" name="Comments/Recommendations/Suggestions/Violent Reactions:" dataDxfId="0"/>
+    <tableColumn id="10" name="RATE YOUR SATISFACTION (1 - 5) 1 being the lowest and 5 being the highest" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,403 +843,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" customWidth="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="H14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>78</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentation/Data.xlsx
+++ b/Documentation/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelicalaurene\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairu\Desktop\Documents\School\PBL\Project---APC-Pre-Reg\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -378,13 +378,58 @@
   </si>
   <si>
     <t>Have you experienced pre-registering?</t>
+  </si>
+  <si>
+    <t>Siegfred Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPM </t>
+  </si>
+  <si>
+    <t>BA Political Science</t>
+  </si>
+  <si>
+    <t>Wala</t>
+  </si>
+  <si>
+    <t>Online yung enlistment</t>
+  </si>
+  <si>
+    <t>may list of subjects online na may sched and prof na then you pick what you want to take then ilagay mo sa so called "cart" mo. Pag tapos ka na mamili ng lahat ng subjects na kailangan/gusto mo, click enroll. Pag na enroll na siya then yung slot dun sa subject ay sayo na.  After na ma enroll mo online. Papasok ka sa campus mismo then you list down in a official paper na bigay ng department mo kung ano tinake mong classes then magpapa advise ka sa professors ng department mo kung ok ba yang mga pinili mong subjects. pag napirmahan na nila yung list, ibibigay siya sa isang "team" of students tapos icacalculate nila kung magkano yung tuition mo kung ilang units ka this sem. Dun din ia-apply kung meron ka mang discount. After ibalik sayo yung tuition calculation, pwede na magbayad sa registrar para maging officially enrolled ka na</t>
+  </si>
+  <si>
+    <t>nope =))</t>
+  </si>
+  <si>
+    <t>Ang problema is dun sa online part =)) slots of classes are limited and the schedule of enlistment is by year level. Kunwari sa August 18 ang enlistment ng juniors and pwede mag enlist by 8 AM, maguunahan lahat ng juniors sa pagkuha ng subjects online para di sila maubusan.</t>
+  </si>
+  <si>
+    <t>Iza Salvador</t>
+  </si>
+  <si>
+    <t>BS Biology</t>
+  </si>
+  <si>
+    <t>2nd Yr College</t>
+  </si>
+  <si>
+    <t>Yup</t>
+  </si>
+  <si>
+    <t>Mamimili ka ng class tas magpapaenlist ka dun tapos random yung mapipili kung sino lang makakapagenroll dun.</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>bulok ung system namin kasi di nila kaya magbigay ng enough slots para sa students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,9 +438,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,26 +479,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +506,19 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -466,8 +528,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -475,30 +537,153 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -509,9 +694,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,19 +709,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
-  <autoFilter ref="A1:K24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="0">
+  <autoFilter ref="A1:K26"/>
+  <sortState ref="A2:K24">
+    <sortCondition ref="B1:B24"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" name="School" dataDxfId="9"/>
-    <tableColumn id="3" name="Course" dataDxfId="8"/>
-    <tableColumn id="12" name="Year Level" dataDxfId="7"/>
-    <tableColumn id="4" name="Do you have a pre-registration system in your school?" dataDxfId="6"/>
-    <tableColumn id="5" name="Online or Manual?" dataDxfId="5"/>
-    <tableColumn id="6" name="Steps:" dataDxfId="4"/>
-    <tableColumn id="7" name="Have you experienced pre-registering?" dataDxfId="3"/>
-    <tableColumn id="8" name="Are you satisfied?" dataDxfId="2"/>
-    <tableColumn id="9" name="Comments/Recommendations/Suggestions/Violent Reactions:" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" name="School" dataDxfId="10"/>
+    <tableColumn id="3" name="Course" dataDxfId="9"/>
+    <tableColumn id="12" name="Year Level" dataDxfId="8"/>
+    <tableColumn id="4" name="Do you have a pre-registration system in your school?" dataDxfId="7"/>
+    <tableColumn id="5" name="Online or Manual?" dataDxfId="6"/>
+    <tableColumn id="6" name="Steps:" dataDxfId="5"/>
+    <tableColumn id="7" name="Have you experienced pre-registering?" dataDxfId="4"/>
+    <tableColumn id="8" name="Are you satisfied?" dataDxfId="3"/>
+    <tableColumn id="9" name="Comments/Recommendations/Suggestions/Violent Reactions:" dataDxfId="2"/>
     <tableColumn id="10" name="RATE YOUR SATISFACTION (1 - 5) 1 being the lowest and 5 being the highest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -843,14 +1028,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -864,765 +1050,871 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="G19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="G23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="I26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
